--- a/biology/Microbiologie/Noviherbaspirillum/Noviherbaspirillum.xlsx
+++ b/biology/Microbiologie/Noviherbaspirillum/Noviherbaspirillum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Noviherbaspirillum est un genre de bactéries gram-négatives de la famille des Oxalobacteraceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Noviherbaspirillum est formé de bactéries aérobies et négatives pour le coloration de Gram. Elles ont la forme de bacilles. Elles sont positives pour le test biochimique catalase. Le profil des polyamines contient principalement de la putrescine et de la 2-hydroxyputrescine[1].
-Lors de la description de ce genre bactérien, les acides gras majoritaires sont les trois suivants : C12:0, C16:01 et C17:0cyclo[2]. Les acides gras hydroxylés sont surtout formés par les C10:03-OH, C14:002-OH et iso-C15:03-OH[3]. La quinone principale est la Q-8 tandis que les lipides polaires sont surtout composés de Diphosphatidylglycérol, Phosphatidyléthanolamine, Phosphatidylglycérol et phosphatidylcholine[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Noviherbaspirillum est formé de bactéries aérobies et négatives pour le coloration de Gram. Elles ont la forme de bacilles. Elles sont positives pour le test biochimique catalase. Le profil des polyamines contient principalement de la putrescine et de la 2-hydroxyputrescine.
+Lors de la description de ce genre bactérien, les acides gras majoritaires sont les trois suivants : C12:0, C16:01 et C17:0cyclo. Les acides gras hydroxylés sont surtout formés par les C10:03-OH, C14:002-OH et iso-C15:03-OH. La quinone principale est la Q-8 tandis que les lipides polaires sont surtout composés de Diphosphatidylglycérol, Phosphatidyléthanolamine, Phosphatidylglycérol et phosphatidylcholine.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre comprend les 15 espèces valides suivantes Selon la base de données taxonomiqueLPSN  (9 avril 2024)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ce genre comprend les 15 espèces valides suivantes Selon la base de données taxonomiqueLPSN  (9 avril 2024) :
 Noviherbaspirillum aerium Xue et al. 2020
 Noviherbaspirillum agri Chaudhary &amp; Kim 2017
 Noviherbaspirillum arenae Peta et al. 2021
@@ -588,12 +604,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Noviherbaspirillum Lin et al. 2013[4].
-L'espèce type est : Noviherbaspirillum malthae Lin et al. 2013[4],[5].
-Étymologie
-L'étymologie de l'épithète spécifique de Noviherbaspirillum est la suivante : No’vi.her.ba.spi.ril’lum. adjectif masculin latin novus, ce qui signifie nouveauw; N.L. neut. dim. n. Herbaspirillum, un genre bactérien dont le nom (serait probablement meilleur sous la forme : Herbispirillum); N.L. neut. dim. n. Noviherbaspirillum, le nouvel Herbaspirillum[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Noviherbaspirillum Lin et al. 2013.
+L'espèce type est : Noviherbaspirillum malthae Lin et al. 2013,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Noviherbaspirillum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Noviherbaspirillum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'épithète spécifique de Noviherbaspirillum est la suivante : No’vi.her.ba.spi.ril’lum. adjectif masculin latin novus, ce qui signifie nouveauw; N.L. neut. dim. n. Herbaspirillum, un genre bactérien dont le nom (serait probablement meilleur sous la forme : Herbispirillum); N.L. neut. dim. n. Noviherbaspirillum, le nouvel Herbaspirillum.
 </t>
         </is>
       </c>
